--- a/src/main/java/org/micro/kojanni/tree/Results.xlsx
+++ b/src/main/java/org/micro/kojanni/tree/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\otus\algoritm-and-structure\src\main\java\org\micro\kojanni\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7478F2-BAF1-47B7-903C-D12E6452EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E1581C-C024-4E6A-ACD7-7F03E1DCC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2A50B0D-31E9-4250-9EA9-127F67784F28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="20">
   <si>
     <t>Тип данных</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Вставка (мс)</t>
+  </si>
+  <si>
+    <t>B-дерево (t=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-дерево (t=5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-дерево (t=10) </t>
+  </si>
+  <si>
+    <t>Splay</t>
+  </si>
+  <si>
+    <t>Результаты N = 20,000</t>
+  </si>
+  <si>
+    <t>Переполнение стека</t>
   </si>
 </sst>
 </file>
@@ -126,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,11 +176,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,6 +238,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,16 +589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5653BA3B-EBB6-4C4C-ABA6-F2F8FD5921E0}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
@@ -847,10 +917,595 @@
         <v>44</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>337</v>
+      </c>
+      <c r="D23" s="4">
+        <v>34</v>
+      </c>
+      <c r="E23" s="4">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="25.5">
+      <c r="A38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>20</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C40:F40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
